--- a/dell/offline/summary_report.xlsx
+++ b/dell/offline/summary_report.xlsx
@@ -32,6 +32,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A3" authorId="0">
       <text>
         <r>
@@ -45,6 +58,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A4" authorId="0">
       <text>
         <r>
@@ -58,6 +84,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A5" authorId="0">
       <text>
         <r>
@@ -71,6 +110,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A6" authorId="0">
       <text>
         <r>
@@ -84,6 +136,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A7" authorId="0">
       <text>
         <r>
@@ -97,6 +162,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A8" authorId="0">
       <text>
         <r>
@@ -110,6 +188,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A9" authorId="0">
       <text>
         <r>
@@ -123,6 +214,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A10" authorId="0">
       <text>
         <r>
@@ -136,6 +240,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A11" authorId="0">
       <text>
         <r>
@@ -158,6 +275,19 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>['Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Blinking  should be  Off']</t>
         </r>
       </text>
@@ -175,6 +305,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A13" authorId="0">
       <text>
         <r>
@@ -188,6 +331,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A14" authorId="0">
       <text>
         <r>
@@ -201,6 +357,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A15" authorId="0">
       <text>
         <r>
@@ -214,6 +383,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A16" authorId="0">
       <text>
         <r>
@@ -236,6 +418,19 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>['Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Blinking  should be  Off']</t>
         </r>
       </text>
@@ -253,6 +448,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A18" authorId="0">
       <text>
         <r>
@@ -266,6 +474,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A19" authorId="0">
       <text>
         <r>
@@ -292,6 +513,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A21" authorId="0">
       <text>
         <r>
@@ -314,6 +548,19 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>['Wrong value: of System.Embedded.1 ThermalSettings.1#FanSpeedOffset,got Off  should be  Max Fan Speed', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRedPolicy,got Not Redundant  should be  Input Power Redundant', 'Wrong value: of iDRAC.Embedded.1 OS-BMC.1#AdminState,got Disabled  should be  Enabled', 'Wrong value: of NIC.Integrated.1-2-1 LegacyBootProto,got NONE  should be  PXE']</t>
         </r>
       </text>
@@ -344,6 +591,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A24" authorId="0">
       <text>
         <r>
@@ -357,6 +617,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A25" authorId="0">
       <text>
         <r>
@@ -370,6 +643,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A26" authorId="0">
       <text>
         <r>
@@ -383,6 +669,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A27" authorId="0">
       <text>
         <r>
@@ -393,6 +692,19 @@
             <family val="2"/>
           </rPr>
           <t>0.0.0.0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
         </r>
       </text>
     </comment>
@@ -401,7 +713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="75">
   <si>
     <t>ServiceTag</t>
   </si>
@@ -449,6 +761,12 @@
   </si>
   <si>
     <t>PSU fw</t>
+  </si>
+  <si>
+    <t>NIC status</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
   <si>
     <t>Configuration</t>
@@ -991,7 +1309,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1010,12 +1328,13 @@
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1064,8 +1383,11 @@
       <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1105,22 +1427,25 @@
       <c r="M2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q2" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -1155,22 +1480,25 @@
       <c r="M3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q3" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1205,22 +1533,25 @@
       <c r="M4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q4" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1255,22 +1586,25 @@
       <c r="M5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q5" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -1305,22 +1639,25 @@
       <c r="M6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q6" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1355,22 +1692,25 @@
       <c r="M7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q7" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -1405,22 +1745,25 @@
       <c r="M8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q8" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -1455,22 +1798,25 @@
       <c r="M9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q9" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -1505,22 +1851,25 @@
       <c r="M10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q10" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -1556,21 +1905,24 @@
         <v>5</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q11" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>5</v>
@@ -1605,22 +1957,25 @@
       <c r="M12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q12" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
@@ -1655,22 +2010,25 @@
       <c r="M13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q13" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -1705,22 +2063,25 @@
       <c r="M14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q14" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
@@ -1755,22 +2116,25 @@
       <c r="M15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q15" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
@@ -1806,21 +2170,24 @@
         <v>5</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q16" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1855,22 +2222,25 @@
       <c r="M17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q17" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
@@ -1905,22 +2275,25 @@
       <c r="M18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q18" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>5</v>
@@ -1956,21 +2329,24 @@
         <v>5</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q19" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -2005,22 +2381,25 @@
       <c r="M20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q20" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
@@ -2056,21 +2435,24 @@
         <v>5</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q21" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
@@ -2106,21 +2488,24 @@
         <v>5</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q22" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
@@ -2155,22 +2540,25 @@
       <c r="M23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q23" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>5</v>
@@ -2205,22 +2593,25 @@
       <c r="M24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="P24" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q24" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>5</v>
@@ -2255,22 +2646,25 @@
       <c r="M25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="P25" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q25" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>5</v>
@@ -2305,22 +2699,25 @@
       <c r="M26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="P26" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Q26" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>5</v>
@@ -2355,14 +2752,17 @@
       <c r="M27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/dell/offline/summary_report.xlsx
+++ b/dell/offline/summary_report.xlsx
@@ -45,6 +45,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A3" authorId="0">
       <text>
         <r>
@@ -71,6 +84,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A4" authorId="0">
       <text>
         <r>
@@ -97,6 +123,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A5" authorId="0">
       <text>
         <r>
@@ -123,6 +162,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A6" authorId="0">
       <text>
         <r>
@@ -149,6 +201,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A7" authorId="0">
       <text>
         <r>
@@ -175,6 +240,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A8" authorId="0">
       <text>
         <r>
@@ -201,6 +279,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A9" authorId="0">
       <text>
         <r>
@@ -227,6 +318,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A10" authorId="0">
       <text>
         <r>
@@ -253,6 +357,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A11" authorId="0">
       <text>
         <r>
@@ -288,7 +405,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>['Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Blinking  should be  Off']</t>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
         </r>
       </text>
     </comment>
@@ -318,6 +435,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A13" authorId="0">
       <text>
         <r>
@@ -344,6 +474,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A14" authorId="0">
       <text>
         <r>
@@ -370,6 +513,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A15" authorId="0">
       <text>
         <r>
@@ -396,6 +552,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A16" authorId="0">
       <text>
         <r>
@@ -431,7 +600,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>['Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Blinking  should be  Off']</t>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
         </r>
       </text>
     </comment>
@@ -461,6 +630,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A18" authorId="0">
       <text>
         <r>
@@ -487,6 +669,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A19" authorId="0">
       <text>
         <r>
@@ -500,6 +695,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A20" authorId="0">
       <text>
         <r>
@@ -526,6 +734,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A21" authorId="0">
       <text>
         <r>
@@ -561,7 +782,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>['Wrong value: of System.Embedded.1 ThermalSettings.1#FanSpeedOffset,got Off  should be  Max Fan Speed', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRedPolicy,got Not Redundant  should be  Input Power Redundant', 'Wrong value: of iDRAC.Embedded.1 OS-BMC.1#AdminState,got Disabled  should be  Enabled', 'Wrong value: of NIC.Integrated.1-2-1 LegacyBootProto,got NONE  should be  PXE']</t>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ThermalSettings.1#FanSpeedOffset,got Off  should be  Max Fan Speed', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRedPolicy,got Not Redundant  should be  Input Power Redundant', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 OS-BMC.1#AdminState,got Disabled  should be  Enabled', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0', 'Wrong value: of NIC.Integrated.1-2-1 LegacyBootProto,got NONE  should be  PXE']</t>
         </r>
       </text>
     </comment>
@@ -578,6 +799,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A23" authorId="0">
       <text>
         <r>
@@ -604,6 +838,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A24" authorId="0">
       <text>
         <r>
@@ -630,6 +877,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A25" authorId="0">
       <text>
         <r>
@@ -656,6 +916,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A26" authorId="0">
       <text>
         <r>
@@ -682,6 +955,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="O26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A27" authorId="0">
       <text>
         <r>
@@ -705,6 +991,19 @@
             <family val="2"/>
           </rPr>
           <t>['Wrong value: of NIC status,got 5  should be  0 ', 'Wrong value: of NIC status,got 5  should be  0 ']</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>['Wrong value: of System.Embedded.1 LCD.1#Configuration,got Service Tag  should be  OS System Name', 'Wrong value: of System.Embedded.1 ServerPwr.1#PSRapidOn,got Enabled  should be  Disabled', 'Wrong value: of System.Embedded.1 ChassisPwrState.1#ChassisLEDState,got Off  should be  Blinking', 'Wrong value: of iDRAC.Embedded.1 IPv4Static.1#Netmask,got 255.255.255.0  should be  255.255.224.0']</t>
         </r>
       </text>
     </comment>
@@ -713,7 +1012,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="74">
   <si>
     <t>ServiceTag</t>
   </si>
@@ -772,7 +1071,7 @@
     <t>Configuration</t>
   </si>
   <si>
-    <t>conf. pass</t>
+    <t>conf. fail</t>
   </si>
   <si>
     <t>Health status</t>
@@ -839,9 +1138,6 @@
   </si>
   <si>
     <t>R33-L2</t>
-  </si>
-  <si>
-    <t>conf. fail</t>
   </si>
   <si>
     <t>C1VQ2S2</t>
@@ -1430,7 +1726,7 @@
       <c r="N2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -1483,7 +1779,7 @@
       <c r="N3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -1536,7 +1832,7 @@
       <c r="N4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -1589,7 +1885,7 @@
       <c r="N5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="4" t="s">
@@ -1642,7 +1938,7 @@
       <c r="N6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -1695,7 +1991,7 @@
       <c r="N7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -1748,7 +2044,7 @@
       <c r="N8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="4" t="s">
@@ -1801,7 +2097,7 @@
       <c r="N9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -1854,7 +2150,7 @@
       <c r="N10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P10" s="4" t="s">
@@ -1908,7 +2204,7 @@
         <v>17</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>21</v>
@@ -1919,10 +2215,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>5</v>
@@ -1960,7 +2256,7 @@
       <c r="N12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -1972,10 +2268,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
@@ -2013,7 +2309,7 @@
       <c r="N13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -2025,10 +2321,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -2066,7 +2362,7 @@
       <c r="N14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P14" s="4" t="s">
@@ -2078,10 +2374,10 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
@@ -2119,7 +2415,7 @@
       <c r="N15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P15" s="4" t="s">
@@ -2131,10 +2427,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
@@ -2173,7 +2469,7 @@
         <v>17</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>21</v>
@@ -2184,10 +2480,10 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -2225,7 +2521,7 @@
       <c r="N17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P17" s="4" t="s">
@@ -2237,10 +2533,10 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
@@ -2278,7 +2574,7 @@
       <c r="N18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P18" s="4" t="s">
@@ -2290,11 +2586,11 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
@@ -2331,7 +2627,7 @@
       <c r="N19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P19" s="4" t="s">
@@ -2343,10 +2639,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -2384,7 +2680,7 @@
       <c r="N20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P20" s="4" t="s">
@@ -2396,10 +2692,10 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
@@ -2438,7 +2734,7 @@
         <v>17</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>21</v>
@@ -2449,11 +2745,11 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
@@ -2490,7 +2786,7 @@
       <c r="N22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P22" s="4" t="s">
@@ -2502,10 +2798,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
@@ -2543,7 +2839,7 @@
       <c r="N23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P23" s="4" t="s">
@@ -2555,10 +2851,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>5</v>
@@ -2596,7 +2892,7 @@
       <c r="N24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P24" s="4" t="s">
@@ -2608,10 +2904,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>5</v>
@@ -2649,7 +2945,7 @@
       <c r="N25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P25" s="4" t="s">
@@ -2661,10 +2957,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>5</v>
@@ -2702,7 +2998,7 @@
       <c r="N26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P26" s="4" t="s">
@@ -2714,10 +3010,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>5</v>
@@ -2755,7 +3051,7 @@
       <c r="N27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="P27" s="4" t="s">
